--- a/public/static/agriculturedata/5.奶类总产量.xlsx
+++ b/public/static/agriculturedata/5.奶类总产量.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>区域</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>北京</t>
   </si>
@@ -119,6 +116,14 @@
   </si>
   <si>
     <t>2011年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,26 +487,28 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>64.099999999999994</v>
@@ -509,11 +516,13 @@
       <c r="C2" s="2">
         <v>64</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>69.3</v>
@@ -521,11 +530,13 @@
       <c r="C3" s="2">
         <v>69.400000000000006</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>69.400000000000006</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>449.1</v>
@@ -533,11 +544,13 @@
       <c r="C4" s="2">
         <v>466.9</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2">
+        <v>466.9</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>74.900000000000006</v>
@@ -545,11 +558,13 @@
       <c r="C5" s="2">
         <v>75.900000000000006</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2">
+        <v>75.900000000000006</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>945.7</v>
@@ -557,11 +572,13 @@
       <c r="C6" s="2">
         <v>931.4</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2">
+        <v>931.4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>126.7</v>
@@ -569,11 +586,13 @@
       <c r="C7" s="2">
         <v>132</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>44.6</v>
@@ -581,11 +600,13 @@
       <c r="C8" s="2">
         <v>46</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>558.79999999999995</v>
@@ -593,11 +614,13 @@
       <c r="C9" s="2">
         <v>550.4</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2">
+        <v>550.4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>24.7</v>
@@ -605,11 +628,13 @@
       <c r="C10" s="2">
         <v>29.1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>57.3</v>
@@ -617,11 +642,13 @@
       <c r="C11" s="2">
         <v>59.2</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2">
+        <v>59.2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>20.3</v>
@@ -629,11 +656,13 @@
       <c r="C12" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2">
+        <v>19.899999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>20.5</v>
@@ -641,11 +670,13 @@
       <c r="C13" s="2">
         <v>22.5</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>15.7</v>
@@ -653,11 +684,13 @@
       <c r="C14" s="2">
         <v>15.8</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>11.9</v>
@@ -665,11 +698,13 @@
       <c r="C15" s="2">
         <v>12.3</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>271.60000000000002</v>
@@ -677,11 +712,13 @@
       <c r="C16" s="2">
         <v>279</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2">
+        <v>279</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>307.89999999999998</v>
@@ -689,11 +726,13 @@
       <c r="C17" s="2">
         <v>321.10000000000002</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2">
+        <v>321.10000000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>30.4</v>
@@ -701,11 +740,13 @@
       <c r="C18" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2">
+        <v>34.799999999999997</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>7.8</v>
@@ -713,11 +754,13 @@
       <c r="C19" s="2">
         <v>8.1</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>14.5</v>
@@ -725,11 +768,13 @@
       <c r="C20" s="2">
         <v>14.5</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>8.1999999999999993</v>
@@ -737,11 +782,13 @@
       <c r="C21" s="2">
         <v>8.9</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -749,11 +796,13 @@
       <c r="C22" s="2">
         <v>0.2</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>8</v>
@@ -761,11 +810,13 @@
       <c r="C23" s="2">
         <v>8</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>70.3</v>
@@ -773,11 +824,13 @@
       <c r="C24" s="2">
         <v>71.7</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2">
+        <v>71.7</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>4.5999999999999996</v>
@@ -785,11 +838,13 @@
       <c r="C25" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>54.1</v>
@@ -797,11 +852,13 @@
       <c r="C26" s="2">
         <v>56.6</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>29.4</v>
@@ -809,11 +866,13 @@
       <c r="C27" s="2">
         <v>29.8</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>177.6</v>
@@ -821,11 +880,13 @@
       <c r="C28" s="2">
         <v>182.4</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2">
+        <v>182.4</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>36.299999999999997</v>
@@ -833,11 +894,13 @@
       <c r="C29" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2">
+        <v>37.700000000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>26.3</v>
@@ -845,11 +908,13 @@
       <c r="C30" s="2">
         <v>28.4</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>84.5</v>
@@ -857,11 +922,13 @@
       <c r="C31" s="2">
         <v>96</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>132.80000000000001</v>
@@ -869,7 +936,9 @@
       <c r="C32" s="2">
         <v>133.9</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="2">
+        <v>133.9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
